--- a/biology/Zoologie/Entelurus/Entelurus.xlsx
+++ b/biology/Zoologie/Entelurus/Entelurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entelurus aequoreus
 L'entélure (nom binomial : Entelurus aequoreus), ou entélure de mer, alias « grand serpent de mer », désigne une espèce de poissons de la famille des Syngnathidae qui comporte par ailleurs les syngnathes et les hippocampes. C'est la seule espèce de son genre Entelurus (monotypique).
-C'est une espèce atlantique dont l'aire de répartition traditionnelle s'étendait de l'Islande aux Açores. Depuis le début des années 2000, ses populations ont connu une croissance numérique considérable dans les eaux nord-européennes, et sa distribution s'est étendue vers le nord jusqu'au Spitzberg et à la mer de Barents[1].
+C'est une espèce atlantique dont l'aire de répartition traditionnelle s'étendait de l'Islande aux Açores. Depuis le début des années 2000, ses populations ont connu une croissance numérique considérable dans les eaux nord-européennes, et sa distribution s'est étendue vers le nord jusqu'au Spitzberg et à la mer de Barents.
 </t>
         </is>
       </c>
